--- a/medicine/Premiers secours et secourisme/Risques_NRBC/Risques_NRBC.xlsx
+++ b/medicine/Premiers secours et secourisme/Risques_NRBC/Risques_NRBC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les risques NRBC (Nucléaires, Radiologiques, Biologiques, Chimiques) sont des risques à danger élevé, ayant pour enjeu la vie des populations civiles ou des militaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les risques NRBC sont liés à ceci:
 à une pratique “non conventionnelle” des combats armés,
@@ -544,7 +558,9 @@
           <t>Parade</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le plan gouvernemental NRBC et ses déclinaisons territoriales prévoient une réponse face à six situations identifiées:
 la menace imminente
@@ -582,11 +598,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Ces planifications viennent en complément des dispositions ORSEC ainsi que des plans dit "métier", tels que l'annexe NRBC du plan blanc des établissements de santé et le plan blanc élargi au niveau départemental, qui permettent la mobilisation des établissements hospitaliers et prévoient les modalités de leur protection pour leur éviter toute contamination secondaire.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces planifications viennent en complément des dispositions ORSEC ainsi que des plans dit "métier", tels que l'annexe NRBC du plan blanc des établissements de santé et le plan blanc élargi au niveau départemental, qui permettent la mobilisation des établissements hospitaliers et prévoient les modalités de leur protection pour leur éviter toute contamination secondaire.
 Au niveau matériel, la France dispose du Véhicule de détection, identification et prélèvement.
-Suisse
-Le Laboratoire de Spiez dispose depuis 2010 d'un laboratoire de niveau P4, ayant coûté 28,5 millions de francs suisses. Il s'agit de l'un des quatre laboratoires du pays de ce niveau[1] avec celui des Hôpitaux universitaires de Genève. Dans un contexte militaire, le véhicule de reconnaissance ABC 08 fournit au laboratoire de Spiez des échantillons pour analyse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Risques_NRBC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Risques_NRBC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Laboratoire de Spiez dispose depuis 2010 d'un laboratoire de niveau P4, ayant coûté 28,5 millions de francs suisses. Il s'agit de l'un des quatre laboratoires du pays de ce niveau avec celui des Hôpitaux universitaires de Genève. Dans un contexte militaire, le véhicule de reconnaissance ABC 08 fournit au laboratoire de Spiez des échantillons pour analyse.
 </t>
         </is>
       </c>
